--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -110,7 +110,7 @@
     <t>Terminada</t>
   </si>
   <si>
-    <t>Encurso</t>
+    <t>En curso</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,12 +176,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +466,7 @@
   <dimension ref="B2:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,11 +520,11 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -542,11 +549,11 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -71,39 +71,12 @@
     <t>Dennis- agregar paquete a courier (cpx usa)</t>
   </si>
   <si>
-    <t>Hairo - generacion de numeros de tracking (interno cpx usa)</t>
-  </si>
-  <si>
-    <t>Pablo - actualizacion de tracking (interno cpx usa)</t>
-  </si>
-  <si>
-    <t>Dennis- obtener tracking (para uso de usuario final)</t>
-  </si>
-  <si>
-    <t>Hairo - enviar paquetes a aduana (cpx usa)</t>
-  </si>
-  <si>
     <t>CPX GT</t>
   </si>
   <si>
-    <t>Pablo - pago de impuestos a sat (cpx gt)</t>
-  </si>
-  <si>
-    <t>Dennis- pago de paquete por medio del usuario (cpx gt)</t>
-  </si>
-  <si>
-    <t>Hairo - generacion de factura</t>
-  </si>
-  <si>
     <t>Facturacion</t>
   </si>
   <si>
-    <t>Pablo - Generacion de Factura (cpx gt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dennis- confirmacion de factura </t>
-  </si>
-  <si>
     <t>Faltantes</t>
   </si>
   <si>
@@ -111,6 +84,33 @@
   </si>
   <si>
     <t>En curso</t>
+  </si>
+  <si>
+    <t>Donis - generacion de numeros de tracking (interno cpx usa)</t>
+  </si>
+  <si>
+    <t>Hairo - actualizacion de tracking (interno cpx usa)</t>
+  </si>
+  <si>
+    <t>Pablo- obtener tracking (para uso de usuario final)</t>
+  </si>
+  <si>
+    <t>Dennis - enviar paquetes a aduana (cpx usa)</t>
+  </si>
+  <si>
+    <t>Donis - pago de impuestos a sat (cpx gt)</t>
+  </si>
+  <si>
+    <t>Hairo - pago de paquete por medio del usuario (cpx gt)</t>
+  </si>
+  <si>
+    <t>Pablo - generacion de factura</t>
+  </si>
+  <si>
+    <t>Dennis - Generacion de Factura (cpx gt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donis - confirmacion de factura </t>
   </si>
 </sst>
 </file>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -582,89 +582,89 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -56,9 +56,6 @@
     <t>Pablo - Consulta de Arancel Individual (cpx usa)</t>
   </si>
   <si>
-    <t>Dennis- Crear Contribuyente</t>
-  </si>
-  <si>
     <t>Hairo - Validacion de manifiesto arancelario (cpx usa)</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Terminada</t>
   </si>
   <si>
-    <t>En curso</t>
-  </si>
-  <si>
     <t>Donis - generacion de numeros de tracking (interno cpx usa)</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t xml:space="preserve">Donis - confirmacion de factura </t>
+  </si>
+  <si>
+    <t>Actualizacion de tracking (interno cpx usa)</t>
+  </si>
+  <si>
+    <t>Enviar Paquetes aduana (cpx usac)</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,12 +142,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,13 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C31"/>
+  <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +468,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -484,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -492,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -500,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -508,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -516,15 +509,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -532,11 +525,11 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -545,15 +538,15 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -561,28 +554,25 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -590,81 +580,86 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
+      <c r="C33" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>Banco</t>
   </si>
@@ -53,7 +54,7 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>Pablo - Consulta de Arancel Individual (cpx usa)</t>
+    <t>Dennis- Crear Contribuyente</t>
   </si>
   <si>
     <t>Hairo - Validacion de manifiesto arancelario (cpx usa)</t>
@@ -80,6 +81,9 @@
     <t>Terminada</t>
   </si>
   <si>
+    <t>En curso</t>
+  </si>
+  <si>
     <t>Donis - generacion de numeros de tracking (interno cpx usa)</t>
   </si>
   <si>
@@ -107,17 +111,92 @@
     <t xml:space="preserve">Donis - confirmacion de factura </t>
   </si>
   <si>
-    <t>Actualizacion de tracking (interno cpx usa)</t>
-  </si>
-  <si>
-    <t>Enviar Paquetes aduana (cpx usac)</t>
+    <t>solicitar a sat el monto a pagar de manifiesto</t>
+  </si>
+  <si>
+    <t>Descipcion</t>
+  </si>
+  <si>
+    <t>Ingreso de formulario a pagar</t>
+  </si>
+  <si>
+    <t>Pablo - Consulta de Arancel por categoria (cpx usa)</t>
+  </si>
+  <si>
+    <t>Paso 1</t>
+  </si>
+  <si>
+    <t>Paso 2</t>
+  </si>
+  <si>
+    <t>Paso 3</t>
+  </si>
+  <si>
+    <t>Paso 4</t>
+  </si>
+  <si>
+    <t>Obtener estado de formulario</t>
+  </si>
+  <si>
+    <t>Paso 5</t>
+  </si>
+  <si>
+    <t>Cambiar estado de formulario</t>
+  </si>
+  <si>
+    <t>Paso 6</t>
+  </si>
+  <si>
+    <t>Solicita el monto a pagar de la sat y al obtener respuesta consume servicio de CPX Guatemala, tupla 31</t>
+  </si>
+  <si>
+    <t>Paso 7</t>
+  </si>
+  <si>
+    <t>Paso 8</t>
+  </si>
+  <si>
+    <t>Interno</t>
+  </si>
+  <si>
+    <t>Interno/con interfaz grafica</t>
+  </si>
+  <si>
+    <t>Hairo - Validacion de manifiesto arancelario</t>
+  </si>
+  <si>
+    <t>Pablo - Consulta de Arancel por categoria</t>
+  </si>
+  <si>
+    <t>Pablo - Recepcion de pago Formulario SAT</t>
+  </si>
+  <si>
+    <t>Dennis- Recepcion de pago CPX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hairo - Consultar Cuenta </t>
+  </si>
+  <si>
+    <t>Hairo - Eliminar Cuenta</t>
+  </si>
+  <si>
+    <t>Dennis- Creacion de cuenta</t>
+  </si>
+  <si>
+    <t>Hairo - pago de paquete por medio del usuario</t>
+  </si>
+  <si>
+    <t>Dennis - Generacion de Factura</t>
+  </si>
+  <si>
+    <t>Pablo - Tipo de Cambio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +204,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,19 +233,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,12 +268,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -269,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -304,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,214 +592,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Banco</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Pablo - Tipo de Cambio</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -877,9 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -889,6 +890,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>Banco</t>
   </si>
@@ -190,18 +190,12 @@
   </si>
   <si>
     <t>Pablo - Tipo de Cambio</t>
-  </si>
-  <si>
-    <t>sdasdasdadsasd</t>
-  </si>
-  <si>
-    <t>asdasd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -412,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,12 +889,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
   <si>
     <t>Banco</t>
   </si>
@@ -192,10 +192,7 @@
     <t>Pablo - Tipo de Cambio</t>
   </si>
   <si>
-    <t>sdasdasdadsasd</t>
-  </si>
-  <si>
-    <t>asdasd</t>
+    <t>cambios</t>
   </si>
 </sst>
 </file>
@@ -865,7 +862,7 @@
         <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Banco</t>
   </si>
@@ -162,34 +162,58 @@
     <t>Interno/con interfaz grafica</t>
   </si>
   <si>
-    <t>Hairo - Validacion de manifiesto arancelario</t>
-  </si>
-  <si>
-    <t>Pablo - Consulta de Arancel por categoria</t>
-  </si>
-  <si>
-    <t>Pablo - Recepcion de pago Formulario SAT</t>
-  </si>
-  <si>
-    <t>Dennis- Recepcion de pago CPX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hairo - Consultar Cuenta </t>
-  </si>
-  <si>
-    <t>Hairo - Eliminar Cuenta</t>
-  </si>
-  <si>
     <t>Dennis- Creacion de cuenta</t>
   </si>
   <si>
-    <t>Hairo - pago de paquete por medio del usuario</t>
-  </si>
-  <si>
-    <t>Dennis - Generacion de Factura</t>
-  </si>
-  <si>
-    <t>Pablo - Tipo de Cambio</t>
+    <t>Recepcion de pago Formulario SAT</t>
+  </si>
+  <si>
+    <t>Recepcion de pago CPX</t>
+  </si>
+  <si>
+    <t>Tipo de Cambio</t>
+  </si>
+  <si>
+    <t>Consulta de Arancel por categoria</t>
+  </si>
+  <si>
+    <t>Validacion de manifiesto arancelario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crear Contribuyente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eliminar Cuenta</t>
+  </si>
+  <si>
+    <t>pago de paquete por medio del usuario</t>
+  </si>
+  <si>
+    <t>Generacion de Factura</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Hairo</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar Cuenta </t>
+  </si>
+  <si>
+    <t>Donis</t>
+  </si>
+  <si>
+    <t>Delegado</t>
+  </si>
+  <si>
+    <t>Numero De Paso</t>
+  </si>
+  <si>
+    <t>Entidad</t>
   </si>
 </sst>
 </file>
@@ -218,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +279,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -268,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -278,6 +320,23 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,203 +934,264 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="I6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Airoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Airoh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>Banco</t>
   </si>
@@ -214,6 +215,21 @@
   </si>
   <si>
     <t>Entidad</t>
+  </si>
+  <si>
+    <t>enviar numero de formulario, transaccion, estdo</t>
+  </si>
+  <si>
+    <t>Tipos de pago</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>numero de tarjeta de 8</t>
   </si>
 </sst>
 </file>
@@ -653,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,6 +821,9 @@
       <c r="B17" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -936,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,4 +1213,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Airoh\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800" activeTab="1"/>
   </bookViews>
@@ -219,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,7 +652,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="76.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -940,7 +935,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -1011,7 +1006,7 @@
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="8" t="s">

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectoSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>Banco</t>
   </si>
@@ -209,12 +215,27 @@
   </si>
   <si>
     <t>Entidad</t>
+  </si>
+  <si>
+    <t>enviar numero de formulario, transaccion, estdo</t>
+  </si>
+  <si>
+    <t>Tipos de pago</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>numero de tarjeta de 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,7 +659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -648,11 +669,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="76.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -799,6 +820,9 @@
       </c>
       <c r="B17" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,11 +955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -1006,7 +1030,7 @@
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1189,4 +1213,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Banco</t>
   </si>
@@ -230,12 +230,15 @@
   </si>
   <si>
     <t>numero de tarjeta de 8</t>
+  </si>
+  <si>
+    <t>Solicita el monto a pagar de la sat y al obtener respuesta consume servicio de CPX Guatemala, tupla 22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,23 +449,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -498,23 +484,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -955,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1118,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -1,20 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectoSA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Banco</t>
   </si>
@@ -215,27 +209,12 @@
   </si>
   <si>
     <t>Entidad</t>
-  </si>
-  <si>
-    <t>enviar numero de formulario, transaccion, estdo</t>
-  </si>
-  <si>
-    <t>Tipos de pago</t>
-  </si>
-  <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
-    <t>Tarjeta</t>
-  </si>
-  <si>
-    <t>numero de tarjeta de 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,11 +648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="76.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -820,9 +799,6 @@
       </c>
       <c r="B17" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,11 +931,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -1030,7 +1006,7 @@
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1213,47 +1189,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -925,7 +925,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -354,6 +354,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1080,7 +1083,7 @@
       <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
     </row>

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -354,9 +354,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -928,7 +925,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +999,7 @@
       <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1083,7 +1080,7 @@
       <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>36</v>
       </c>
     </row>

--- a/MetodosFaltantes.xlsx
+++ b/MetodosFaltantes.xlsx
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +925,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1151,7 @@
       <c r="B22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>30</v>
       </c>
     </row>
